--- a/secure/26e-Jasmin.xlsx
+++ b/secure/26e-Jasmin.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Jasmin-447499</t>
+    <t>26e-Jasmin-353180</t>
   </si>
   <si>
-    <t>26e-Jasmin-796025</t>
+    <t>26e-Jasmin-330501</t>
   </si>
   <si>
-    <t>26e-Jasmin-812513</t>
+    <t>26e-Jasmin-731445</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F4d7e2ea"/>
+        <fgColor rgb="F3f5c99e"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:SW503"/>
+  <dimension ref="A1:XL503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -907,11 +907,14 @@
       </c>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:636" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>-0.7</v>
       </c>
       <c r="M77" s="4"/>
+      <c r="XL77" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
@@ -1405,14 +1408,11 @@
       </c>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>-0.368</v>
       </c>
       <c r="M160" s="4"/>
-      <c r="IN160" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
@@ -1426,11 +1426,14 @@
       </c>
       <c r="M162" s="4"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:138" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>-0.356</v>
       </c>
       <c r="M163" s="4"/>
+      <c r="EH163" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
@@ -1702,14 +1705,11 @@
       </c>
       <c r="M208" s="4"/>
     </row>
-    <row r="209" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>-0.172</v>
       </c>
       <c r="M209" s="4"/>
-      <c r="JS209" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
@@ -2059,14 +2059,11 @@
       </c>
       <c r="M267" s="4"/>
     </row>
-    <row r="268" spans="1:517" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>0.064</v>
       </c>
       <c r="M268" s="4"/>
-      <c r="SW268" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
@@ -2608,11 +2605,14 @@
       </c>
       <c r="M358" s="4"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>0.428</v>
       </c>
       <c r="M359" s="4"/>
+      <c r="DB359" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
